--- a/biology/Botanique/Square_Émile-Chautemps/Square_Émile-Chautemps.xlsx
+++ b/biology/Botanique/Square_Émile-Chautemps/Square_Émile-Chautemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Émile-Chautemps, anciennement square des Arts-et-Métiers, est un espace vert de Paris, situé dans le 3e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square situé entre le boulevard de Sébastopol, la rue Salomon-de-Caus, la rue Papin et la rue Saint-Martin en face du Conservatoire national des arts et métiers (CNAM) dans le 3e arrondissement de la capitale, est accessible par le 98 bis, boulevard de Sébastopol.
 Il est desservi par les lignes 3 et 4 à la station de métro Réaumur - Sébastopol.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square rend honneur au docteur en médecine, député, sénateur, puis ministre Émile Chautemps (1850-1918).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est créé en 1858 dans le cadre des transformations de Paris sous le Second Empire. D'abord baptisé « square des Arts-et-Métiers », il est renommé square Émile-Chautemps. Le square s’étend sur 4 069 m2.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aire de jeux pour enfants
 Boulodrome
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Chautemps</t>
+          <t>Square_Émile-Chautemps</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Buste de Marc Seguin (auteur inconnu), face au Conservatoire.
 Bronzes de Charles Gumery (L'Agriculture et l'Industrie) et d'Auguste Ottin (Mercure et la Musique) ornant le centre des bassins.
